--- a/posesiones/1485987.xlsx
+++ b/posesiones/1485987.xlsx
@@ -1973,10 +1973,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2117,7 +2117,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2164,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2214,7 +2214,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2264,7 +2264,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R9">
         <v>25</v>
@@ -2317,7 +2317,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2367,7 +2367,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R11">
         <v>15</v>
@@ -2420,7 +2420,7 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R12">
         <v>19</v>
@@ -2473,7 +2473,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2567,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2614,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2664,7 +2664,7 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R17">
         <v>22</v>
@@ -2714,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2764,7 +2764,7 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R19">
         <v>19</v>
@@ -2814,7 +2814,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2861,7 +2861,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2908,7 +2908,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -3002,7 +3002,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -3052,7 +3052,7 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R25">
         <v>29</v>
@@ -3102,7 +3102,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3152,7 +3152,7 @@
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R27">
         <v>28</v>
@@ -3202,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3252,7 +3252,7 @@
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R29">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R30">
         <v>7</v>
@@ -3358,7 +3358,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3405,7 +3405,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3455,7 +3455,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3502,7 +3502,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3552,7 +3552,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3602,7 +3602,7 @@
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R36">
         <v>26</v>
@@ -3652,7 +3652,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3699,7 +3699,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3796,7 +3796,7 @@
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R40">
         <v>17</v>
@@ -3849,7 +3849,7 @@
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R41">
         <v>17</v>
@@ -3899,7 +3899,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3949,7 +3949,7 @@
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R43">
         <v>10</v>
@@ -4002,7 +4002,7 @@
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R44">
         <v>7</v>
@@ -4055,7 +4055,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -4105,7 +4105,7 @@
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R46">
         <v>19</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4205,7 +4205,7 @@
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R48">
         <v>28</v>
@@ -4255,7 +4255,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4305,7 +4305,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4355,7 +4355,7 @@
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R51">
         <v>15</v>
@@ -4408,7 +4408,7 @@
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R52">
         <v>17</v>
@@ -4458,7 +4458,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4508,7 +4508,7 @@
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R54">
         <v>15</v>
@@ -4558,7 +4558,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4608,7 +4608,7 @@
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R56">
         <v>7</v>
@@ -4658,7 +4658,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4705,7 +4705,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4755,7 +4755,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4802,7 +4802,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4852,7 +4852,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4902,7 +4902,7 @@
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R62">
         <v>17</v>
@@ -4952,7 +4952,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4999,7 +4999,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -5096,7 +5096,7 @@
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R66">
         <v>24</v>
@@ -5149,7 +5149,7 @@
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R67">
         <v>21</v>
@@ -5202,7 +5202,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5252,7 +5252,7 @@
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R69">
         <v>10</v>
@@ -5305,7 +5305,7 @@
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R70">
         <v>10</v>
@@ -5358,7 +5358,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5408,7 +5408,7 @@
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R72">
         <v>16</v>
@@ -5461,7 +5461,7 @@
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R73">
         <v>13</v>
@@ -5511,7 +5511,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5561,7 +5561,7 @@
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R75">
         <v>11</v>
@@ -5614,7 +5614,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5661,7 +5661,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5711,7 +5711,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5761,7 +5761,7 @@
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R79">
         <v>21</v>
@@ -5814,7 +5814,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5864,7 +5864,7 @@
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R81">
         <v>8</v>
@@ -5914,7 +5914,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5964,7 +5964,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -6014,7 +6014,7 @@
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R84">
         <v>33</v>
@@ -6067,7 +6067,7 @@
         <v>1</v>
       </c>
       <c r="Q85">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R85">
         <v>17</v>
@@ -6117,7 +6117,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -6164,7 +6164,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6214,7 +6214,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6261,7 +6261,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6308,7 +6308,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6355,7 +6355,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6402,7 +6402,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6449,7 +6449,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6499,7 +6499,7 @@
         <v>1</v>
       </c>
       <c r="Q94">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R94">
         <v>8</v>
@@ -6549,7 +6549,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6596,7 +6596,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6643,7 +6643,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6690,7 +6690,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6740,7 +6740,7 @@
         <v>1</v>
       </c>
       <c r="Q99">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R99">
         <v>9</v>
@@ -6793,7 +6793,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6843,7 +6843,7 @@
         <v>1</v>
       </c>
       <c r="Q101">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R101">
         <v>7</v>
@@ -6893,7 +6893,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6940,7 +6940,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6987,7 +6987,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -7034,7 +7034,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -7081,7 +7081,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -7128,7 +7128,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7175,7 +7175,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7222,7 +7222,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7269,7 +7269,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7316,7 +7316,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7363,7 +7363,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7410,7 +7410,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7457,7 +7457,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7507,7 +7507,7 @@
         <v>1</v>
       </c>
       <c r="Q115">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R115">
         <v>32</v>
@@ -7551,10 +7551,10 @@
         <v>1</v>
       </c>
       <c r="P116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q116">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7601,7 +7601,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7648,7 +7648,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7695,7 +7695,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7742,7 +7742,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7789,7 +7789,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7836,7 +7836,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7883,7 +7883,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7930,7 +7930,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7977,7 +7977,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -8024,7 +8024,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -8065,10 +8065,10 @@
         <v>1</v>
       </c>
       <c r="P127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q127">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -8118,7 +8118,7 @@
         <v>1</v>
       </c>
       <c r="Q128">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="R128">
         <v>18</v>
@@ -8171,7 +8171,7 @@
         <v>1</v>
       </c>
       <c r="Q129">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R129">
         <v>23</v>
@@ -8221,7 +8221,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8268,7 +8268,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8368,7 +8368,7 @@
         <v>1</v>
       </c>
       <c r="Q133">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R133">
         <v>27</v>
@@ -8421,7 +8421,7 @@
         <v>1</v>
       </c>
       <c r="Q134">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R134">
         <v>20</v>
@@ -8474,7 +8474,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8521,7 +8521,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8568,7 +8568,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8615,7 +8615,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8662,7 +8662,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8709,7 +8709,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8759,7 +8759,7 @@
         <v>1</v>
       </c>
       <c r="Q141">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R141">
         <v>5</v>
@@ -8812,7 +8812,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8862,7 +8862,7 @@
         <v>1</v>
       </c>
       <c r="Q143">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R143">
         <v>19</v>
@@ -8915,7 +8915,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -8962,7 +8962,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -9012,7 +9012,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -9062,7 +9062,7 @@
         <v>1</v>
       </c>
       <c r="Q147">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R147">
         <v>15</v>
@@ -9115,7 +9115,7 @@
         <v>1</v>
       </c>
       <c r="Q148">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R148">
         <v>13</v>
@@ -9168,7 +9168,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -9215,7 +9215,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9265,7 +9265,7 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -9315,7 +9315,7 @@
         <v>1</v>
       </c>
       <c r="Q152">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R152">
         <v>14</v>
@@ -9362,7 +9362,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9409,7 +9409,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9456,7 +9456,7 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9550,7 +9550,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9597,7 +9597,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9694,7 +9694,7 @@
         <v>1</v>
       </c>
       <c r="Q160">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R160">
         <v>28</v>
@@ -9744,7 +9744,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9794,7 +9794,7 @@
         <v>1</v>
       </c>
       <c r="Q162">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R162">
         <v>6</v>
@@ -9844,7 +9844,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9894,7 +9894,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9944,7 +9944,7 @@
         <v>1</v>
       </c>
       <c r="Q165">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R165">
         <v>23</v>
@@ -9997,7 +9997,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -10044,7 +10044,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -10094,7 +10094,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10141,7 +10141,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10188,7 +10188,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10235,7 +10235,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10282,7 +10282,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10332,7 +10332,7 @@
         <v>1</v>
       </c>
       <c r="Q173">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R173">
         <v>29</v>
@@ -10385,7 +10385,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10435,7 +10435,7 @@
         <v>1</v>
       </c>
       <c r="Q175">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R175">
         <v>8</v>
@@ -10488,7 +10488,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10535,7 +10535,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10582,7 +10582,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10632,7 +10632,7 @@
         <v>1</v>
       </c>
       <c r="Q179">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R179">
         <v>27</v>
@@ -10685,7 +10685,7 @@
         <v>1</v>
       </c>
       <c r="Q180">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R180">
         <v>17</v>
@@ -10735,7 +10735,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10785,7 +10785,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10835,7 +10835,7 @@
         <v>1</v>
       </c>
       <c r="Q183">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R183">
         <v>20</v>
@@ -10888,7 +10888,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10938,7 +10938,7 @@
         <v>1</v>
       </c>
       <c r="Q185">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R185">
         <v>10</v>
@@ -10988,7 +10988,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -11035,7 +11035,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -11082,7 +11082,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -11129,7 +11129,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11176,7 +11176,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11223,7 +11223,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11270,7 +11270,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11320,7 +11320,7 @@
         <v>1</v>
       </c>
       <c r="Q193">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R193">
         <v>20</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11417,7 +11417,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11464,7 +11464,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11511,7 +11511,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11561,7 +11561,7 @@
         <v>1</v>
       </c>
       <c r="Q198">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R198">
         <v>10</v>
@@ -11614,7 +11614,7 @@
         <v>1</v>
       </c>
       <c r="Q199">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R199">
         <v>15</v>
@@ -11667,7 +11667,7 @@
         <v>1</v>
       </c>
       <c r="Q200">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R200">
         <v>28</v>
@@ -11720,7 +11720,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11767,7 +11767,7 @@
         <v>0</v>
       </c>
       <c r="Q202">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -11817,7 +11817,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11867,7 +11867,7 @@
         <v>1</v>
       </c>
       <c r="Q204">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R204">
         <v>14</v>
@@ -11920,7 +11920,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11970,7 +11970,7 @@
         <v>1</v>
       </c>
       <c r="Q206">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R206">
         <v>7</v>
@@ -12023,7 +12023,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -12070,7 +12070,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -12120,7 +12120,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -12167,7 +12167,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12217,7 +12217,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12267,7 +12267,7 @@
         <v>1</v>
       </c>
       <c r="Q212">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R212">
         <v>19</v>
@@ -12320,7 +12320,7 @@
         <v>1</v>
       </c>
       <c r="Q213">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R213">
         <v>11</v>
@@ -12373,7 +12373,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12423,7 +12423,7 @@
         <v>1</v>
       </c>
       <c r="Q215">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R215">
         <v>17</v>
@@ -12476,7 +12476,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12526,7 +12526,7 @@
         <v>1</v>
       </c>
       <c r="Q217">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R217">
         <v>12</v>
@@ -12576,7 +12576,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12626,7 +12626,7 @@
         <v>1</v>
       </c>
       <c r="Q219">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R219">
         <v>9</v>
@@ -12679,7 +12679,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12729,7 +12729,7 @@
         <v>1</v>
       </c>
       <c r="Q221">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R221">
         <v>14</v>
@@ -12776,7 +12776,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12823,7 +12823,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12870,7 +12870,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12917,7 +12917,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12964,7 +12964,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -13011,7 +13011,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -13058,7 +13058,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -13105,7 +13105,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -13152,7 +13152,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13199,7 +13199,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13246,7 +13246,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13293,7 +13293,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13343,7 +13343,7 @@
         <v>1</v>
       </c>
       <c r="Q234">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R234">
         <v>21</v>
@@ -13396,7 +13396,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13443,7 +13443,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13490,7 +13490,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13537,7 +13537,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13584,7 +13584,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13631,7 +13631,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13678,7 +13678,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13728,7 +13728,7 @@
         <v>1</v>
       </c>
       <c r="Q242">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R242">
         <v>24</v>
@@ -13778,7 +13778,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13828,7 +13828,7 @@
         <v>1</v>
       </c>
       <c r="Q244">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R244">
         <v>9</v>
@@ -13878,7 +13878,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13928,7 +13928,7 @@
         <v>1</v>
       </c>
       <c r="Q246">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R246">
         <v>25</v>
@@ -13981,7 +13981,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -14031,7 +14031,7 @@
         <v>1</v>
       </c>
       <c r="Q248">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R248">
         <v>19</v>
@@ -14084,7 +14084,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -14134,7 +14134,7 @@
         <v>1</v>
       </c>
       <c r="Q250">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R250">
         <v>4</v>
@@ -14178,10 +14178,10 @@
         <v>1</v>
       </c>
       <c r="P251" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q251">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14228,7 +14228,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14275,7 +14275,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14322,7 +14322,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14369,7 +14369,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14416,7 +14416,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14463,7 +14463,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14510,7 +14510,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14557,7 +14557,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14598,10 +14598,10 @@
         <v>1</v>
       </c>
       <c r="P260" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q260">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14651,7 +14651,7 @@
         <v>1</v>
       </c>
       <c r="Q261">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="R261">
         <v>23</v>
@@ -14701,7 +14701,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14751,7 +14751,7 @@
         <v>1</v>
       </c>
       <c r="Q263">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="R263">
         <v>13</v>
@@ -14801,7 +14801,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14848,7 +14848,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14895,7 +14895,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14945,7 +14945,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -14992,7 +14992,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -15039,7 +15039,7 @@
         <v>0</v>
       </c>
       <c r="Q269">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -15086,7 +15086,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -15133,7 +15133,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -15183,7 +15183,7 @@
         <v>1</v>
       </c>
       <c r="Q272">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="R272">
         <v>28</v>
@@ -15236,7 +15236,7 @@
         <v>1</v>
       </c>
       <c r="Q273">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="R273">
         <v>26</v>
@@ -15286,7 +15286,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15336,7 +15336,7 @@
         <v>1</v>
       </c>
       <c r="Q275">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="R275">
         <v>14</v>
@@ -15389,7 +15389,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15439,7 +15439,7 @@
         <v>1</v>
       </c>
       <c r="Q277">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="R277">
         <v>6</v>
@@ -15489,7 +15489,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15536,7 +15536,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15583,7 +15583,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15633,7 +15633,7 @@
         <v>1</v>
       </c>
       <c r="Q281">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R281">
         <v>0</v>
@@ -15686,7 +15686,7 @@
         <v>1</v>
       </c>
       <c r="Q282">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R282">
         <v>16</v>
@@ -15739,7 +15739,7 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -15786,7 +15786,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15833,7 +15833,7 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -15880,7 +15880,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15927,7 +15927,7 @@
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -15974,7 +15974,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -16021,7 +16021,7 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -16071,7 +16071,7 @@
         <v>1</v>
       </c>
       <c r="Q290">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R290">
         <v>16</v>
@@ -16124,7 +16124,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -16174,7 +16174,7 @@
         <v>1</v>
       </c>
       <c r="Q292">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R292">
         <v>14</v>
@@ -16227,7 +16227,7 @@
         <v>0</v>
       </c>
       <c r="Q293">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -16274,7 +16274,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16321,7 +16321,7 @@
         <v>0</v>
       </c>
       <c r="Q295">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -16371,7 +16371,7 @@
         <v>1</v>
       </c>
       <c r="Q296">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R296">
         <v>18</v>
@@ -16421,7 +16421,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16471,7 +16471,7 @@
         <v>1</v>
       </c>
       <c r="Q298">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R298">
         <v>21</v>
@@ -16521,7 +16521,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16568,7 +16568,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16618,7 +16618,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16668,7 +16668,7 @@
         <v>1</v>
       </c>
       <c r="Q302">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R302">
         <v>23</v>
@@ -16721,7 +16721,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16771,7 +16771,7 @@
         <v>1</v>
       </c>
       <c r="Q304">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R304">
         <v>8</v>
@@ -16821,7 +16821,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16871,7 +16871,7 @@
         <v>1</v>
       </c>
       <c r="Q306">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R306">
         <v>13</v>
@@ -16924,7 +16924,7 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -16974,7 +16974,7 @@
         <v>1</v>
       </c>
       <c r="Q308">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R308">
         <v>18</v>
@@ -17024,7 +17024,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -17071,7 +17071,7 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -17121,7 +17121,7 @@
         <v>1</v>
       </c>
       <c r="Q311">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R311">
         <v>16</v>
@@ -17171,7 +17171,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17218,7 +17218,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17265,7 +17265,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17312,7 +17312,7 @@
         <v>0</v>
       </c>
       <c r="Q315">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="316" spans="1:18">
@@ -17359,7 +17359,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17409,7 +17409,7 @@
         <v>1</v>
       </c>
       <c r="Q317">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R317">
         <v>0</v>
@@ -17462,7 +17462,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17509,7 +17509,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17556,7 +17556,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17603,7 +17603,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17650,7 +17650,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17697,7 +17697,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17747,7 +17747,7 @@
         <v>1</v>
       </c>
       <c r="Q324">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R324">
         <v>12</v>
@@ -17797,7 +17797,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17844,7 +17844,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17894,7 +17894,7 @@
         <v>1</v>
       </c>
       <c r="Q327">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R327">
         <v>10</v>
@@ -17944,7 +17944,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -17991,7 +17991,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -18038,7 +18038,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -18085,7 +18085,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -18135,7 +18135,7 @@
         <v>1</v>
       </c>
       <c r="Q332">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R332">
         <v>4</v>
@@ -18185,7 +18185,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18232,7 +18232,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18279,7 +18279,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18329,7 +18329,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18379,7 +18379,7 @@
         <v>1</v>
       </c>
       <c r="Q337">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R337">
         <v>19</v>
@@ -18429,7 +18429,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18479,7 +18479,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18529,7 +18529,7 @@
         <v>1</v>
       </c>
       <c r="Q340">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R340">
         <v>24</v>
@@ -18582,7 +18582,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18629,7 +18629,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18676,7 +18676,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18723,7 +18723,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18770,7 +18770,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18817,7 +18817,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18867,7 +18867,7 @@
         <v>1</v>
       </c>
       <c r="Q347">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R347">
         <v>2</v>
@@ -18920,7 +18920,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -18967,7 +18967,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -19014,7 +19014,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -19061,7 +19061,7 @@
         <v>0</v>
       </c>
       <c r="Q351">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -19111,7 +19111,7 @@
         <v>1</v>
       </c>
       <c r="Q352">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R352">
         <v>15</v>
@@ -19161,7 +19161,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19211,7 +19211,7 @@
         <v>1</v>
       </c>
       <c r="Q354">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R354">
         <v>19</v>
@@ -19264,7 +19264,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19314,7 +19314,7 @@
         <v>1</v>
       </c>
       <c r="Q356">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R356">
         <v>15</v>
@@ -19364,7 +19364,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19411,7 +19411,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19458,7 +19458,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19505,7 +19505,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19552,7 +19552,7 @@
         <v>0</v>
       </c>
       <c r="Q361">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19599,7 +19599,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19646,7 +19646,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19693,7 +19693,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19740,7 +19740,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19787,7 +19787,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19834,7 +19834,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19881,7 +19881,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -19928,7 +19928,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -19975,7 +19975,7 @@
         <v>0</v>
       </c>
       <c r="Q370">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -20022,7 +20022,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -20072,7 +20072,7 @@
         <v>1</v>
       </c>
       <c r="Q372">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R372">
         <v>32</v>
@@ -20122,7 +20122,7 @@
         <v>0</v>
       </c>
       <c r="Q373">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20169,7 +20169,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20216,7 +20216,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20266,7 +20266,7 @@
         <v>1</v>
       </c>
       <c r="Q376">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R376">
         <v>18</v>
@@ -20316,7 +20316,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20363,7 +20363,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20413,7 +20413,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20463,7 +20463,7 @@
         <v>1</v>
       </c>
       <c r="Q380">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R380">
         <v>24</v>
@@ -20516,7 +20516,7 @@
         <v>1</v>
       </c>
       <c r="Q381">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R381">
         <v>7</v>
@@ -20569,7 +20569,7 @@
         <v>0</v>
       </c>
       <c r="Q382">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20619,7 +20619,7 @@
         <v>1</v>
       </c>
       <c r="Q383">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R383">
         <v>6</v>
@@ -20669,7 +20669,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20716,7 +20716,7 @@
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -20766,7 +20766,7 @@
         <v>1</v>
       </c>
       <c r="Q386">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R386">
         <v>0</v>
@@ -20819,7 +20819,7 @@
         <v>1</v>
       </c>
       <c r="Q387">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R387">
         <v>10</v>
@@ -20869,7 +20869,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20919,7 +20919,7 @@
         <v>1</v>
       </c>
       <c r="Q389">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R389">
         <v>5</v>
@@ -20972,7 +20972,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -21022,7 +21022,7 @@
         <v>1</v>
       </c>
       <c r="Q391">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R391">
         <v>6</v>
@@ -21072,7 +21072,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -21122,7 +21122,7 @@
         <v>1</v>
       </c>
       <c r="Q393">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R393">
         <v>13</v>
@@ -21175,7 +21175,7 @@
         <v>1</v>
       </c>
       <c r="Q394">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R394">
         <v>23</v>
@@ -21225,7 +21225,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21269,7 +21269,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21316,7 +21316,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21363,7 +21363,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21410,7 +21410,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21457,7 +21457,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21504,7 +21504,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21551,7 +21551,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21598,7 +21598,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21648,7 +21648,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21695,7 +21695,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21742,7 +21742,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21789,7 +21789,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21836,7 +21836,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21883,7 +21883,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -21930,7 +21930,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -21977,7 +21977,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -22027,7 +22027,7 @@
         <v>1</v>
       </c>
       <c r="Q412">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R412">
         <v>29</v>
@@ -22077,7 +22077,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22124,7 +22124,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22171,7 +22171,7 @@
         <v>0</v>
       </c>
       <c r="Q415">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -22218,7 +22218,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22265,7 +22265,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22312,7 +22312,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22359,7 +22359,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22406,7 +22406,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22453,7 +22453,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22503,7 +22503,7 @@
         <v>1</v>
       </c>
       <c r="Q422">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R422">
         <v>22</v>
@@ -22553,7 +22553,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22600,7 +22600,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22650,7 +22650,7 @@
         <v>1</v>
       </c>
       <c r="Q425">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R425">
         <v>9</v>
@@ -22700,7 +22700,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22741,10 +22741,10 @@
         <v>1</v>
       </c>
       <c r="P427" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q427">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22791,7 +22791,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22838,7 +22838,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -22885,7 +22885,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -22932,7 +22932,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -22973,10 +22973,10 @@
         <v>1</v>
       </c>
       <c r="P432" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q432">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -23023,7 +23023,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -23070,7 +23070,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23120,7 +23120,7 @@
         <v>1</v>
       </c>
       <c r="Q435">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="R435">
         <v>15</v>
@@ -23170,7 +23170,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23220,7 +23220,7 @@
         <v>1</v>
       </c>
       <c r="Q437">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="R437">
         <v>8</v>
@@ -23273,7 +23273,7 @@
         <v>1</v>
       </c>
       <c r="Q438">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="R438">
         <v>21</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23376,7 +23376,7 @@
         <v>1</v>
       </c>
       <c r="Q440">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="R440">
         <v>21</v>
@@ -23429,7 +23429,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23479,7 +23479,7 @@
         <v>1</v>
       </c>
       <c r="Q442">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R442">
         <v>11</v>
@@ -23532,7 +23532,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23582,7 +23582,7 @@
         <v>1</v>
       </c>
       <c r="Q444">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R444">
         <v>13</v>
@@ -23632,7 +23632,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23679,7 +23679,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23726,7 +23726,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23773,7 +23773,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23823,7 +23823,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -23873,7 +23873,7 @@
         <v>1</v>
       </c>
       <c r="Q450">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R450">
         <v>36</v>
@@ -23923,7 +23923,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -23973,7 +23973,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -24023,7 +24023,7 @@
         <v>1</v>
       </c>
       <c r="Q453">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R453">
         <v>28</v>
@@ -24073,7 +24073,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -24120,7 +24120,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24167,7 +24167,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24214,7 +24214,7 @@
         <v>0</v>
       </c>
       <c r="Q457">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="458" spans="1:18">
@@ -24261,7 +24261,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24311,7 +24311,7 @@
         <v>1</v>
       </c>
       <c r="Q459">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R459">
         <v>15</v>
@@ -24361,7 +24361,7 @@
         <v>0</v>
       </c>
       <c r="Q460">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="461" spans="1:18">
@@ -24411,7 +24411,7 @@
         <v>1</v>
       </c>
       <c r="Q461">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R461">
         <v>6</v>
@@ -24464,7 +24464,7 @@
         <v>1</v>
       </c>
       <c r="Q462">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R462">
         <v>8</v>
@@ -24514,7 +24514,7 @@
         <v>0</v>
       </c>
       <c r="Q463">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="464" spans="1:18">
@@ -24564,7 +24564,7 @@
         <v>1</v>
       </c>
       <c r="Q464">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R464">
         <v>14</v>
@@ -24614,7 +24614,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24708,7 +24708,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24755,7 +24755,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -24802,7 +24802,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -24849,7 +24849,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -24896,7 +24896,7 @@
         <v>0</v>
       </c>
       <c r="Q471">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="472" spans="1:18">
@@ -24946,7 +24946,7 @@
         <v>1</v>
       </c>
       <c r="Q472">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R472">
         <v>17</v>
@@ -24999,7 +24999,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -25046,7 +25046,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="Q475">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="476" spans="1:18">
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="Q476">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25190,7 +25190,7 @@
         <v>0</v>
       </c>
       <c r="Q477">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="478" spans="1:18">
@@ -25240,7 +25240,7 @@
         <v>1</v>
       </c>
       <c r="Q478">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R478">
         <v>35</v>
@@ -25287,7 +25287,7 @@
         <v>0</v>
       </c>
       <c r="Q479">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="480" spans="1:18">
@@ -25337,7 +25337,7 @@
         <v>1</v>
       </c>
       <c r="Q480">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R480">
         <v>29</v>
@@ -25390,7 +25390,7 @@
         <v>0</v>
       </c>
       <c r="Q481">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="482" spans="1:18">
@@ -25440,7 +25440,7 @@
         <v>1</v>
       </c>
       <c r="Q482">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R482">
         <v>17</v>
@@ -25493,7 +25493,7 @@
         <v>0</v>
       </c>
       <c r="Q483">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="484" spans="1:18">
@@ -25540,7 +25540,7 @@
         <v>0</v>
       </c>
       <c r="Q484">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="485" spans="1:18">
@@ -25587,7 +25587,7 @@
         <v>0</v>
       </c>
       <c r="Q485">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="486" spans="1:18">
@@ -25637,7 +25637,7 @@
         <v>1</v>
       </c>
       <c r="Q486">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R486">
         <v>15</v>
@@ -25687,7 +25687,7 @@
         <v>0</v>
       </c>
       <c r="Q487">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="488" spans="1:18">
@@ -25737,7 +25737,7 @@
         <v>1</v>
       </c>
       <c r="Q488">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R488">
         <v>16</v>
@@ -25790,7 +25790,7 @@
         <v>0</v>
       </c>
       <c r="Q489">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="490" spans="1:18">
@@ -25840,7 +25840,7 @@
         <v>1</v>
       </c>
       <c r="Q490">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R490">
         <v>3</v>
@@ -25893,7 +25893,7 @@
         <v>1</v>
       </c>
       <c r="Q491">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R491">
         <v>2</v>
@@ -25943,7 +25943,7 @@
         <v>0</v>
       </c>
       <c r="Q492">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="493" spans="1:18">
@@ -25993,7 +25993,7 @@
         <v>1</v>
       </c>
       <c r="Q493">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R493">
         <v>17</v>
@@ -26046,7 +26046,7 @@
         <v>0</v>
       </c>
       <c r="Q494">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="495" spans="1:18">
@@ -26093,7 +26093,7 @@
         <v>0</v>
       </c>
       <c r="Q495">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="496" spans="1:18">
@@ -26143,7 +26143,7 @@
         <v>1</v>
       </c>
       <c r="Q496">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R496">
         <v>6</v>
@@ -26193,7 +26193,7 @@
         <v>0</v>
       </c>
       <c r="Q497">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="498" spans="1:18">
@@ -26240,7 +26240,7 @@
         <v>0</v>
       </c>
       <c r="Q498">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="499" spans="1:18">
@@ -26287,7 +26287,7 @@
         <v>0</v>
       </c>
       <c r="Q499">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="500" spans="1:18">
@@ -26334,7 +26334,7 @@
         <v>0</v>
       </c>
       <c r="Q500">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="501" spans="1:18">
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="Q501">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="502" spans="1:18">
@@ -26431,7 +26431,7 @@
         <v>1</v>
       </c>
       <c r="Q502">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R502">
         <v>13</v>
@@ -26481,7 +26481,7 @@
         <v>0</v>
       </c>
       <c r="Q503">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="504" spans="1:18">
@@ -26531,7 +26531,7 @@
         <v>0</v>
       </c>
       <c r="Q504">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="505" spans="1:18">
@@ -26581,7 +26581,7 @@
         <v>1</v>
       </c>
       <c r="Q505">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R505">
         <v>10</v>
@@ -26631,7 +26631,7 @@
         <v>0</v>
       </c>
       <c r="Q506">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="507" spans="1:18">
@@ -26684,7 +26684,7 @@
         <v>1</v>
       </c>
       <c r="Q507">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R507">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         <v>1</v>
       </c>
       <c r="Q508">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R508">
         <v>0</v>
@@ -26787,7 +26787,7 @@
         <v>0</v>
       </c>
       <c r="Q509">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="510" spans="1:18">
@@ -26834,7 +26834,7 @@
         <v>0</v>
       </c>
       <c r="Q510">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="511" spans="1:18">
@@ -26881,7 +26881,7 @@
         <v>0</v>
       </c>
       <c r="Q511">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="512" spans="1:18">
@@ -26928,7 +26928,7 @@
         <v>0</v>
       </c>
       <c r="Q512">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="513" spans="1:18">
@@ -26978,7 +26978,7 @@
         <v>1</v>
       </c>
       <c r="Q513">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R513">
         <v>0</v>
@@ -27028,7 +27028,7 @@
         <v>0</v>
       </c>
       <c r="Q514">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="515" spans="1:18">
@@ -27078,7 +27078,7 @@
         <v>1</v>
       </c>
       <c r="Q515">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R515">
         <v>25</v>
@@ -27128,7 +27128,7 @@
         <v>0</v>
       </c>
       <c r="Q516">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="517" spans="1:18">
@@ -27175,7 +27175,7 @@
         <v>0</v>
       </c>
       <c r="Q517">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="518" spans="1:18">
@@ -27225,7 +27225,7 @@
         <v>1</v>
       </c>
       <c r="Q518">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R518">
         <v>12</v>
@@ -27278,7 +27278,7 @@
         <v>0</v>
       </c>
       <c r="Q519">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="520" spans="1:18">
@@ -27328,7 +27328,7 @@
         <v>1</v>
       </c>
       <c r="Q520">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R520">
         <v>24</v>
@@ -27378,7 +27378,7 @@
         <v>0</v>
       </c>
       <c r="Q521">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="522" spans="1:18">
@@ -27428,7 +27428,7 @@
         <v>1</v>
       </c>
       <c r="Q522">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R522">
         <v>3</v>
@@ -27475,7 +27475,7 @@
         <v>0</v>
       </c>
       <c r="Q523">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="524" spans="1:18">
@@ -27522,7 +27522,7 @@
         <v>0</v>
       </c>
       <c r="Q524">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="525" spans="1:18">
@@ -27569,7 +27569,7 @@
         <v>0</v>
       </c>
       <c r="Q525">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="526" spans="1:18">
@@ -27619,7 +27619,7 @@
         <v>1</v>
       </c>
       <c r="Q526">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R526">
         <v>16</v>
@@ -27672,7 +27672,7 @@
         <v>0</v>
       </c>
       <c r="Q527">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="528" spans="1:18">
@@ -27719,7 +27719,7 @@
         <v>0</v>
       </c>
       <c r="Q528">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="529" spans="1:18">
@@ -27769,7 +27769,7 @@
         <v>0</v>
       </c>
       <c r="Q529">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="530" spans="1:18">
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q530">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="531" spans="1:18">
@@ -27866,7 +27866,7 @@
         <v>0</v>
       </c>
       <c r="Q531">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="532" spans="1:18">
@@ -27913,7 +27913,7 @@
         <v>0</v>
       </c>
       <c r="Q532">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="533" spans="1:18">
@@ -27960,7 +27960,7 @@
         <v>0</v>
       </c>
       <c r="Q533">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="534" spans="1:18">
@@ -28007,7 +28007,7 @@
         <v>0</v>
       </c>
       <c r="Q534">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="535" spans="1:18">
@@ -28057,7 +28057,7 @@
         <v>1</v>
       </c>
       <c r="Q535">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R535">
         <v>20</v>
@@ -28110,7 +28110,7 @@
         <v>1</v>
       </c>
       <c r="Q536">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R536">
         <v>21</v>
@@ -28160,7 +28160,7 @@
         <v>0</v>
       </c>
       <c r="Q537">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="538" spans="1:18">
@@ -28207,7 +28207,7 @@
         <v>0</v>
       </c>
       <c r="Q538">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="539" spans="1:18">
@@ -28254,7 +28254,7 @@
         <v>0</v>
       </c>
       <c r="Q539">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="540" spans="1:18">
@@ -28301,7 +28301,7 @@
         <v>0</v>
       </c>
       <c r="Q540">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="541" spans="1:18">
@@ -28348,7 +28348,7 @@
         <v>0</v>
       </c>
       <c r="Q541">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="542" spans="1:18">
@@ -28398,7 +28398,7 @@
         <v>1</v>
       </c>
       <c r="Q542">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R542">
         <v>13</v>
@@ -28448,7 +28448,7 @@
         <v>0</v>
       </c>
       <c r="Q543">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="544" spans="1:18">
@@ -28495,7 +28495,7 @@
         <v>0</v>
       </c>
       <c r="Q544">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="545" spans="1:18">
@@ -28539,7 +28539,7 @@
         <v>0</v>
       </c>
       <c r="Q545">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="546" spans="1:18">
@@ -28589,7 +28589,7 @@
         <v>1</v>
       </c>
       <c r="Q546">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R546">
         <v>25</v>
@@ -28639,7 +28639,7 @@
         <v>0</v>
       </c>
       <c r="Q547">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="548" spans="1:18">
@@ -28689,7 +28689,7 @@
         <v>0</v>
       </c>
       <c r="Q548">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="549" spans="1:18">
@@ -28739,7 +28739,7 @@
         <v>1</v>
       </c>
       <c r="Q549">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R549">
         <v>21</v>
@@ -28789,7 +28789,7 @@
         <v>0</v>
       </c>
       <c r="Q550">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="551" spans="1:18">
@@ -28836,7 +28836,7 @@
         <v>0</v>
       </c>
       <c r="Q551">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="552" spans="1:18">
@@ -28883,7 +28883,7 @@
         <v>0</v>
       </c>
       <c r="Q552">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="553" spans="1:18">
@@ -28930,7 +28930,7 @@
         <v>0</v>
       </c>
       <c r="Q553">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="554" spans="1:18">
@@ -28980,7 +28980,7 @@
         <v>1</v>
       </c>
       <c r="Q554">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R554">
         <v>14</v>
@@ -29033,7 +29033,7 @@
         <v>0</v>
       </c>
       <c r="Q555">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="556" spans="1:18">
@@ -29080,7 +29080,7 @@
         <v>0</v>
       </c>
       <c r="Q556">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="557" spans="1:18">
@@ -29127,7 +29127,7 @@
         <v>0</v>
       </c>
       <c r="Q557">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="558" spans="1:18">
@@ -29174,7 +29174,7 @@
         <v>0</v>
       </c>
       <c r="Q558">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="559" spans="1:18">
@@ -29224,7 +29224,7 @@
         <v>1</v>
       </c>
       <c r="Q559">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R559">
         <v>4</v>
@@ -29274,7 +29274,7 @@
         <v>0</v>
       </c>
       <c r="Q560">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="561" spans="1:18">
@@ -29321,7 +29321,7 @@
         <v>0</v>
       </c>
       <c r="Q561">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="562" spans="1:18">
@@ -29368,7 +29368,7 @@
         <v>0</v>
       </c>
       <c r="Q562">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="563" spans="1:18">
@@ -29418,7 +29418,7 @@
         <v>1</v>
       </c>
       <c r="Q563">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R563">
         <v>10</v>
@@ -29465,7 +29465,7 @@
         <v>0</v>
       </c>
       <c r="Q564">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="565" spans="1:18">
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="Q565">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="566" spans="1:18">
@@ -29559,7 +29559,7 @@
         <v>0</v>
       </c>
       <c r="Q566">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="567" spans="1:18">
@@ -29609,7 +29609,7 @@
         <v>1</v>
       </c>
       <c r="Q567">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R567">
         <v>2</v>
@@ -29662,7 +29662,7 @@
         <v>0</v>
       </c>
       <c r="Q568">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="569" spans="1:18">
@@ -29709,7 +29709,7 @@
         <v>0</v>
       </c>
       <c r="Q569">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="570" spans="1:18">
@@ -29756,7 +29756,7 @@
         <v>0</v>
       </c>
       <c r="Q570">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="571" spans="1:18">
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="Q571">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="572" spans="1:18">
@@ -29850,7 +29850,7 @@
         <v>0</v>
       </c>
       <c r="Q572">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="573" spans="1:18">
@@ -29897,7 +29897,7 @@
         <v>0</v>
       </c>
       <c r="Q573">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="574" spans="1:18">
@@ -29947,7 +29947,7 @@
         <v>1</v>
       </c>
       <c r="Q574">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R574">
         <v>3</v>
@@ -29997,7 +29997,7 @@
         <v>0</v>
       </c>
       <c r="Q575">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="576" spans="1:18">
@@ -30044,7 +30044,7 @@
         <v>0</v>
       </c>
       <c r="Q576">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="577" spans="1:18">
@@ -30094,7 +30094,7 @@
         <v>1</v>
       </c>
       <c r="Q577">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="R577">
         <v>9</v>
@@ -30147,7 +30147,7 @@
         <v>1</v>
       </c>
       <c r="Q578">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="R578">
         <v>1</v>
@@ -30191,10 +30191,10 @@
         <v>1</v>
       </c>
       <c r="P579" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q579">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="580" spans="1:18">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="Q580">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
